--- a/generated_output/temp/us-core-careteam.xlsx
+++ b/generated_output/temp/us-core-careteam.xlsx
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>CareTeam.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>CareTeam.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>CareTeam.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -257,7 +257,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -283,7 +283,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>CareTeam.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -393,7 +393,7 @@
     <t>CareTeam.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
     <t>CareTeam.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -444,7 +444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>CareTeam.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>CareTeam.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>CareTeam.participant</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|RelatedPerson)
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>CareTeam.participant.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>CareTeam.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <t>CareTeam.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>CareTeam.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -776,67 +776,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
